--- a/2023/devices.xlsx
+++ b/2023/devices.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2669E-E817-447E-9F85-2F7E725AC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="13335" yWindow="2265" windowWidth="14580" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -100,13 +113,19 @@
   </si>
   <si>
     <t>https://www.tokopedia.com/99warehousejkt/adaptor-charger-usb-2a-5v-kepala-charger-cas-hp-smartphone-adapter</t>
+  </si>
+  <si>
+    <t>Desk Setup Panel Papan Berlubang Pegboard Home Office - Black</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/ptnmtindo/desk-setup-panel-papan-berlubang-pegboard-home-office-black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +175,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +261,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +313,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,14 +506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
@@ -460,7 +523,7 @@
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -480,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -501,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -522,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -532,7 +595,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -546,14 +609,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f>D5*C5</f>
+        <f t="shared" ref="E5:E15" si="0">D5*C5</f>
         <v>1050000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -567,14 +630,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>624600</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -588,14 +651,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>68900</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -609,14 +672,14 @@
         <v>100</v>
       </c>
       <c r="E8" s="5">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>32000</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -630,14 +693,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>77500</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -651,14 +714,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>27500</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -672,14 +735,14 @@
         <v>2</v>
       </c>
       <c r="E11" s="5">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>315000</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -693,14 +756,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="5">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>448000</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75">
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -714,14 +777,14 @@
         <v>8</v>
       </c>
       <c r="E13" s="5">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>66000</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -735,22 +798,35 @@
         <v>8</v>
       </c>
       <c r="E14" s="5">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
@@ -758,7 +834,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
@@ -766,7 +842,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
@@ -774,7 +850,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
@@ -782,7 +858,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
@@ -790,11 +866,11 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="2">
         <f>SUM(E2:E20)</f>
-        <v>38821500</v>
+        <v>40321500</v>
       </c>
     </row>
   </sheetData>
@@ -804,24 +880,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2023/devices.xlsx
+++ b/2023/devices.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="13335" yWindow="2265" windowWidth="14580" windowHeight="12750"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total" sheetId="3" r:id="rId1"/>
+    <sheet name="EXP" sheetId="4" r:id="rId2"/>
+    <sheet name="COM" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>No</t>
   </si>
@@ -84,12 +84,6 @@
     <t>https://www.tokopedia.com/aprinoshops/konektor-rj45-lan-connector-rj45-kepala-kabel-utp-lan-rj45</t>
   </si>
   <si>
-    <t>Obeng Set Magnet Gagang Karet Skrup Screwdriver BINTANG PLUS MIN + -</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/perlahanpasti/obeng-set-magnet-gagang-karet-skrup-screwdriver-bintang-plus-min</t>
-  </si>
-  <si>
     <t>Obeng Set Magnet 25 in 1 Reparasi Hp Jam tangan Komputer Laptop</t>
   </si>
   <si>
@@ -124,16 +118,440 @@
   </si>
   <si>
     <t>https://www.tokopedia.com/ptnmtindo/desk-setup-panel-papan-berlubang-pegboard-home-office-white</t>
+  </si>
+  <si>
+    <t>BEST SELLER (isi 25 pcs) Botol Kale Tebal 250 ml / Botol Plastik Tebal 29 gr / Botol Kopi / Botol Juice (tutup putih)</t>
+  </si>
+  <si>
+    <t>https://shopee.co.id/product/16201681/2026332735</t>
+  </si>
+  <si>
+    <t>STOP KONTAK UTICON 4/6 LUBANG SAKLAR TERSENDIRI 1- 10 METER - 4LUBANG 2X1,5, 1 METER</t>
+  </si>
+  <si>
+    <t>Fan USB 4cm DC 5V 4x4 cm / Kipas USB 4cm DC 5V tebal 1 cm 5 Volt - Fan USB 4 cm</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B RAM 8GB Starter Kit - 32GB</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/wartekidn/raspberry-pi-4-model-b-ram-8gb-starter-kit-32gb</t>
+  </si>
+  <si>
+    <t>STOP KONTAK UTICON 4/6 LUBANG SAKLAR TERSENDIRI 1- 10 METER - 4LUBANG 2X0,75, 3METER</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/fajarelektrik-1/stop-kontak-uticon-4-6-lubang-saklar-tersendiri-1-10-meter-4lubang-2x0-75-3meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama </t>
+  </si>
+  <si>
+    <t>Spesifikasi</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga </t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Mega 2560 R3 + ESP8266 Wifi </t>
+  </si>
+  <si>
+    <t>Mega +WiFi R3 ATmega2560+ESP8266 (32Mb memory), USB-TTL CH340G. Compatible for Arduino Mega, NodeMCU, WeMos ESP8266
+Specifics
+Supply Voltage 7~15V recommind
+Model Number MEGA+WiFi-R3-AT2560-ESP8266-CH340G
+Condition New
+Brand Name RobotDyn
+is_customized Yes
+Type Logic ICs
+MCU ATmega2560
+WiFi MCU ESP8266
+USB-converter CH340G
+PinOut Uno MEGA R3
+Descriptions
+Full integration on one board: Mega R3 ATmega2560 and WiFi ESP8266 with memory 8Mb. All of the modules can work together or each separately. And everyone has their own pinout headers.
+The convenient solution for the development of new projects requiring Uno and WiFi.
+Via USB you can update sketches and firmvare for ATmega2560 and for ESP8266. For this on board have the USB-serial converter CH340G.
+Use this board is very simple.
+The board has DIP-switch, to connect the modules.
+For example, to: USB and ATmeg2560, USB and ESP8266, ATmega2560 and ESP8266.</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/UzmZjryxlBb</t>
+  </si>
+  <si>
+    <t>PHOTO OPTO INTERRUPTOR</t>
+  </si>
+  <si>
+    <t>Spesifikasi:
+==============================
+- Tegangan kerja : 3.3V~5V
+- Lebar celah : 5mm
+- Output : sinyal digital, normally LOW
+- Berat : 4gram
+- Dimensi : 37mm x 15mm x 13mm
+Pinout :
+==============================
+VCC: + power
+GND: - power
+DO: Digital Output
+AO: Not used</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/O23p9uqylBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTARY ENCODER </t>
+  </si>
+  <si>
+    <t>KY040 ini mempunyai pin CLK, DT, SW, +, and GND. :
+==============================
+- CLK is Data Output 1 of KY-040
+- DT is Data Output 2 of KY-040
+- SW - goes LOW when pressed)
+- GND Connect GND/ground
+- + connect to VCC
+Spesifikasi :
+==============================
+- Ukuran: 31 * 19 * 29mm
+- Warna: Hitam
+- Voltase: 5V
+- Pulse circle: 20</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/19wQUVhylBb</t>
+  </si>
+  <si>
+    <t>CODED DISK ENCODER 20 TITIK</t>
+  </si>
+  <si>
+    <t>Spesifikasi:
+=================================
+- Diameter: +/- 26mm
+- Lubang Tengah: 5,5mm x 3,5mm
+- Tebal: 3mm
+- Bahan: Acrylic hitam
+- Jumlah lubang: 20</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/PSignUkylBb</t>
+  </si>
+  <si>
+    <t>Kabel IDC 20 Jalur 2.54mm</t>
+  </si>
+  <si>
+    <t>Kabel Pelangi cocok untuk IDC
+jenis kabel awg tebal
+jumlah kabel : 20 jalur
+jarak 2.54mm</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/w7GgOELClBb</t>
+  </si>
+  <si>
+    <t>POWER SUPPLY 24V 400W 16.6A</t>
+  </si>
+  <si>
+    <t>✅ Spesifikasi :
+⚙️ Input : 176~264VAC
+⚙️ Output : 24V
+⚙️ Power : 400W
+⚙️ Current : 16.6A
+⚙️ SIZE 20 X 9.8 X 4.3cm
+⚙️ Short circuit protection
+⚙️ Over voltage protection
+⚙️ Over curent protection
+⚙️ Over power protection
+⚙️ Over temperatur protection
+⚙️ High efficiency
+⚙️ Smart fan</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/6L6mUnXClBb</t>
+  </si>
+  <si>
+    <t>Komponen Resistor, header, dll</t>
+  </si>
+  <si>
+    <t>estimasi, toko offline</t>
+  </si>
+  <si>
+    <t>Kit 57 stepper motor nema 23 torque 2.3 N.M + Driver DM542 4.2A KB26</t>
+  </si>
+  <si>
+    <t>Kit 57 stepper motor nema 23 torque 2.3N.M + Driver DM542 4.2A KB26
+57 stepper motor nema 23 torque 2.3N.M
+Current: 4.4A
+Output torque: 2.3Nm
+Body Length: 76mm
+Shaft length: 20mm
+Shaft shaft diameter: 8mm（Default hair 8MM)
+Shaft: single
+Outlet: two-phase four lead
+blackColor A +
+Green A-
+Red B +
+Blue B-
+Driver DM542 4.2A
+Suitable for Nema 17, Nema 23, Nema34 stepper motor，and 2‑phase mixing stepper motors(outer diameter: 42, 57, 86mm)
+This high subdivision driver is suitable for high subdivision motor. Suitable for 42,57,86 type 28209;phase 48209;phase stepper motor
+PWM current control guarantee the stable operation of motor, suitable for engraving machine, CNC, etc.
+The product is made of high class materials of good quality, which possess stable working performance
+The stepper motor driver have stable structure and high working efficiency, you can use with confidence</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/2WP5RefzlBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible Shaft Coupling </t>
+  </si>
+  <si>
+    <t>Flexible Shaft Coupling 8 mm x 12 mm Coupler D 32 mm L 40 mm KO71
+Features:
+Shaft coupler Often used to connect servo motor, stepper motor, encoder, screw driving, machine platform, etc.
+Shaft:8mm X12mm.
+Length:40mm.
+Diameter:32mm.
+Material: Aluminium.</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/3d5DECnAlBb</t>
+  </si>
+  <si>
+    <t>Pulley Timing CNC 32T  Bore 8mm</t>
+  </si>
+  <si>
+    <t>Spesifikasi teknis produk ini :
+- Nama : GT2 Pulley 32T W6
+- Banyak gigi : 32 Gigi
+- Lebar Belt untuk pulley : 6mm (W6)
+- Pitch, jarak gigi : 2 mm
+- Diameter lubang tengah : 5/6/6.35/8/10 mm (silakan pilih ya ;)
+- Bahan : Aluminium</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/JQX0SzHAlBb</t>
+  </si>
+  <si>
+    <t>GT2 Timing Belt 6mm Closed</t>
+  </si>
+  <si>
+    <t>Spesifikasi produk :
+- Nama : GT2 Timing Belt Closed Loop W6
+- Ukuran : Closed Loop W6 100/150/200/200-Anti Slip/250/300/350/400 mm (Silahkan pilih variasi ya:)
+- Jarak Gigi (pitch) : 2mm
+- Jumlah Gigi : Panjang belt / 2mm, misal 100mm berarti 100/2 = 50gigi
+- Lebar : 6mm
+- Tipe : 2GT Belt
+- Bahan : Rubber</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/xVo8pyZAlBb</t>
+  </si>
+  <si>
+    <t>ROUNDBAR dia 8mm Stainless Steel 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besi AS SS 304 diameter 8mm </t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/pZ8yQPbBlBb</t>
+  </si>
+  <si>
+    <t>Aluminium Profile 2040 V Slot Black</t>
+  </si>
+  <si>
+    <t>V Slot Aluminium Profile Extrusion
+Type : 2040 Black Anodized</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/q3hQ44LBlBb</t>
+  </si>
+  <si>
+    <t>Baut L M5 x 60 mm</t>
+  </si>
+  <si>
+    <t>Baut L M5 - 60- 10 pcs</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/mxd5DvUBlBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5 T nut hammer </t>
+  </si>
+  <si>
+    <t>T Nut Hammer untuk Aluminium Profile 2020, 2040, 2060, 2080</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/UAnZa41BlBb</t>
+  </si>
+  <si>
+    <t>Pillow Block Bearing KP08</t>
+  </si>
+  <si>
+    <t>Pollow Block KP08
+Bore 8mm</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/WBhnmpfClBb</t>
+  </si>
+  <si>
+    <t>L Bracket Stepper Motor 57</t>
+  </si>
+  <si>
+    <t>L Dudukan Stepper Motor Nema 23
+Ketebalan : 3 mm</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/2udrnukdmBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2040 bracket corner </t>
+  </si>
+  <si>
+    <t>Material : Aluminum
+SIZE 2040</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/VFi2RMrdmBb</t>
+  </si>
+  <si>
+    <t>End Cap Aluminium Profile 2040</t>
+  </si>
+  <si>
+    <t>Untuk Aluminium Profile 2040</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/MIBLDmiemBb</t>
+  </si>
+  <si>
+    <t>Akrilik 10mm BENING</t>
+  </si>
+  <si>
+    <t>* Warna BENING 10 mm
+- Clear dan Transparant
+- Potong LASER (rapi dan presisi)</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/ZTXXSVvClBb</t>
+  </si>
+  <si>
+    <t>Roda PU 2 inch</t>
+  </si>
+  <si>
+    <t>Material : PU Polyurethane Produk Premium
+Tipe : Wheel Only ( Tanpa Bracket )
+Diameter :1.5 inch dan 2 Inch ( 5 cm )
+Lebar Roda : 23mm
+Diametes As Tengah : 6 mm
+Kapasitas Beban Maksimum : 50 kg / roda</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/Tpcb6FkElBb</t>
+  </si>
+  <si>
+    <t>Cetak PCB</t>
+  </si>
+  <si>
+    <t>Ketentuan Desain PCB:
+- Lebar jalur min 0.4 mm
+- Jarak antar jalur (clearance) min 0.5 mm
+- Lubang/hole/via/vias untuk double layer min ukuran 1.1 mm
+- Format File : Eagle, PDF, CDR, Fritzing, Sprint Layout, EasyEDA, Express PCB, Dip Trace, Gerber, dll
+- Sertakan informasi tambahan apakah desain layout PCB perlu di cetak MIRROR atau tidak. Jika ada tampilan 3D view akan lebih baik untuk menghindari salah persepsi dalam mencetak PCB</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/YAswk62ClBb</t>
+  </si>
+  <si>
+    <t>TIBOX PVC 150x200x100 (T-1520/10)</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/Ue38GZ8ClBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filament PLA+ Neat Winding Sugoi </t>
+  </si>
+  <si>
+    <t>Filament Ketebalan 1.75 mm dengan kualitas bagus,
+- Roundness Tolerance : 0.01 - 0.02 mm
+- Print Temperature : 210 - 220 Degree Celcius (PLA+)
+- Print Bed Temperature : 0-30 Degree Celcius (PLA+)
+- Water Absorption : Rendah, Tidak ada bubble walau disimpan dalam waktu lama
+- Low Heat Distortion, High Strength and Rigidity</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/yWIqmd3DlBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Grup</t>
+  </si>
+  <si>
+    <t>Angle of repose dynamic measurement</t>
+  </si>
+  <si>
+    <t>Customize high performance computing system</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Alokasi</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,10 +574,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -174,8 +594,68 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,10 +956,791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2">
+        <f>EXP!F28</f>
+        <v>13175272</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2">
+        <f>COM!E21</f>
+        <v>50092580</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(C2:C3)</f>
+        <v>63267852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37" style="22" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>342000</v>
+      </c>
+      <c r="F2" s="15">
+        <f t="shared" ref="F2:F27" si="0">E2*D2</f>
+        <v>342000</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A3" s="11">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>6500</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A27" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A5" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E5*D5</f>
+        <v>3000</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A6" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6*D6</f>
+        <v>80000</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A7" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>270000</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7*D7</f>
+        <v>270000</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A8" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>250000</v>
+      </c>
+      <c r="F8" s="15">
+        <f>E8*D8</f>
+        <v>250000</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A9" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>600000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A10" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>80000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A11" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="19">
+        <v>25200</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A12" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19">
+        <v>16562</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>99372</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A13" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <v>34900</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>139600</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A14" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>780000</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>1560000</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A15" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="19">
+        <v>18000</v>
+      </c>
+      <c r="F15" s="15">
+        <f>E15*D15</f>
+        <v>90000</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="11">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1300</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>52000</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A17" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="11">
+        <v>8</v>
+      </c>
+      <c r="E17" s="19">
+        <v>18000</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A18" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>28000</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A19" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="11">
+        <v>24</v>
+      </c>
+      <c r="E19" s="19">
+        <v>9500</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>228000</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="11">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19">
+        <v>7000</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A21" s="11">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="11">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A22" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A23" s="11">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="11">
+        <v>300</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A24" s="11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <v>125500</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>125500</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A25" s="11">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>230000</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>460000</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A26" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A27" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="E28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="23">
+        <f>SUM(F2:F27)</f>
+        <v>13175272</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G21" r:id="rId14"/>
+    <hyperlink ref="G6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="G23" r:id="rId17"/>
+    <hyperlink ref="G24" r:id="rId18"/>
+    <hyperlink ref="G25" r:id="rId19"/>
+    <hyperlink ref="G22" r:id="rId20"/>
+    <hyperlink ref="G18" r:id="rId21"/>
+    <hyperlink ref="G19" r:id="rId22"/>
+    <hyperlink ref="G20" r:id="rId23"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,35 +1815,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="45">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2350000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4*C4</f>
+        <v>9400000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
-        <v>1050000</v>
+        <v>1500000</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E16" si="0">D5*C5</f>
-        <v>1050000</v>
+        <f>D5*C5</f>
+        <v>1500000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
@@ -590,217 +1862,215 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>624600</v>
+        <v>1050000</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>624600</v>
+        <f t="shared" ref="E6:E17" si="0">D6*C6</f>
+        <v>1050000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>68900</v>
+        <v>624600</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>68900</v>
+        <v>624600</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>320</v>
+        <v>68900</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>68900</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5">
-        <v>77500</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>77500</v>
+        <v>32000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
-        <v>27500</v>
+        <v>8250</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>27500</v>
+        <f>D10*C10</f>
+        <v>99000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
+        <v>27500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
         <v>157500</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>315000</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <v>112000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>448000</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60">
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>8250</v>
+        <v>124000</v>
       </c>
       <c r="D13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>66000</v>
+        <v>124000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5">
-        <v>15000</v>
+        <v>112000</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>448000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
-        <v>1500000</v>
+        <v>15000</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>120000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <v>65000</v>
@@ -813,16 +2083,29 @@
         <v>130000</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="5">
+        <v>40395</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>161580</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3"/>
@@ -852,35 +2135,11 @@
       <c r="C21" s="2"/>
       <c r="E21" s="2">
         <f>SUM(E2:E20)</f>
-        <v>40451500</v>
+        <v>50092580</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2023/devices.xlsx
+++ b/2023/devices.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2669E-E817-447E-9F85-2F7E725AC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="2265" windowWidth="14580" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="2265" windowWidth="14580" windowHeight="12750"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Total" sheetId="3" r:id="rId1"/>
+    <sheet name="EXP" sheetId="4" r:id="rId2"/>
+    <sheet name="COM" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>No</t>
   </si>
@@ -85,12 +84,6 @@
     <t>https://www.tokopedia.com/aprinoshops/konektor-rj45-lan-connector-rj45-kepala-kabel-utp-lan-rj45</t>
   </si>
   <si>
-    <t>Obeng Set Magnet Gagang Karet Skrup Screwdriver BINTANG PLUS MIN + -</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/perlahanpasti/obeng-set-magnet-gagang-karet-skrup-screwdriver-bintang-plus-min</t>
-  </si>
-  <si>
     <t>Obeng Set Magnet 25 in 1 Reparasi Hp Jam tangan Komputer Laptop</t>
   </si>
   <si>
@@ -118,17 +111,447 @@
     <t>Desk Setup Panel Papan Berlubang Pegboard Home Office - Black</t>
   </si>
   <si>
-    <t>https://www.tokopedia.com/ptnmtindo/desk-setup-panel-papan-berlubang-pegboard-home-office-black</t>
+    <t>Adaptor LCD/LED Monitor LG 19V - 0,84A ADS-18SG-19-3</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/zonadigital/adaptor-lcd-led-monitor-lg-19v-0-84a-ads-18sg-19-3</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/ptnmtindo/desk-setup-panel-papan-berlubang-pegboard-home-office-white</t>
+  </si>
+  <si>
+    <t>BEST SELLER (isi 25 pcs) Botol Kale Tebal 250 ml / Botol Plastik Tebal 29 gr / Botol Kopi / Botol Juice (tutup putih)</t>
+  </si>
+  <si>
+    <t>https://shopee.co.id/product/16201681/2026332735</t>
+  </si>
+  <si>
+    <t>STOP KONTAK UTICON 4/6 LUBANG SAKLAR TERSENDIRI 1- 10 METER - 4LUBANG 2X1,5, 1 METER</t>
+  </si>
+  <si>
+    <t>Fan USB 4cm DC 5V 4x4 cm / Kipas USB 4cm DC 5V tebal 1 cm 5 Volt - Fan USB 4 cm</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4 Model B RAM 8GB Starter Kit - 32GB</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/wartekidn/raspberry-pi-4-model-b-ram-8gb-starter-kit-32gb</t>
+  </si>
+  <si>
+    <t>STOP KONTAK UTICON 4/6 LUBANG SAKLAR TERSENDIRI 1- 10 METER - 4LUBANG 2X0,75, 3METER</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/fajarelektrik-1/stop-kontak-uticon-4-6-lubang-saklar-tersendiri-1-10-meter-4lubang-2x0-75-3meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama </t>
+  </si>
+  <si>
+    <t>Spesifikasi</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga </t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Mega 2560 R3 + ESP8266 Wifi </t>
+  </si>
+  <si>
+    <t>Mega +WiFi R3 ATmega2560+ESP8266 (32Mb memory), USB-TTL CH340G. Compatible for Arduino Mega, NodeMCU, WeMos ESP8266
+Specifics
+Supply Voltage 7~15V recommind
+Model Number MEGA+WiFi-R3-AT2560-ESP8266-CH340G
+Condition New
+Brand Name RobotDyn
+is_customized Yes
+Type Logic ICs
+MCU ATmega2560
+WiFi MCU ESP8266
+USB-converter CH340G
+PinOut Uno MEGA R3
+Descriptions
+Full integration on one board: Mega R3 ATmega2560 and WiFi ESP8266 with memory 8Mb. All of the modules can work together or each separately. And everyone has their own pinout headers.
+The convenient solution for the development of new projects requiring Uno and WiFi.
+Via USB you can update sketches and firmvare for ATmega2560 and for ESP8266. For this on board have the USB-serial converter CH340G.
+Use this board is very simple.
+The board has DIP-switch, to connect the modules.
+For example, to: USB and ATmeg2560, USB and ESP8266, ATmega2560 and ESP8266.</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/UzmZjryxlBb</t>
+  </si>
+  <si>
+    <t>PHOTO OPTO INTERRUPTOR</t>
+  </si>
+  <si>
+    <t>Spesifikasi:
+==============================
+- Tegangan kerja : 3.3V~5V
+- Lebar celah : 5mm
+- Output : sinyal digital, normally LOW
+- Berat : 4gram
+- Dimensi : 37mm x 15mm x 13mm
+Pinout :
+==============================
+VCC: + power
+GND: - power
+DO: Digital Output
+AO: Not used</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/O23p9uqylBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTARY ENCODER </t>
+  </si>
+  <si>
+    <t>KY040 ini mempunyai pin CLK, DT, SW, +, and GND. :
+==============================
+- CLK is Data Output 1 of KY-040
+- DT is Data Output 2 of KY-040
+- SW - goes LOW when pressed)
+- GND Connect GND/ground
+- + connect to VCC
+Spesifikasi :
+==============================
+- Ukuran: 31 * 19 * 29mm
+- Warna: Hitam
+- Voltase: 5V
+- Pulse circle: 20</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/19wQUVhylBb</t>
+  </si>
+  <si>
+    <t>CODED DISK ENCODER 20 TITIK</t>
+  </si>
+  <si>
+    <t>Spesifikasi:
+=================================
+- Diameter: +/- 26mm
+- Lubang Tengah: 5,5mm x 3,5mm
+- Tebal: 3mm
+- Bahan: Acrylic hitam
+- Jumlah lubang: 20</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/PSignUkylBb</t>
+  </si>
+  <si>
+    <t>Kabel IDC 20 Jalur 2.54mm</t>
+  </si>
+  <si>
+    <t>Kabel Pelangi cocok untuk IDC
+jenis kabel awg tebal
+jumlah kabel : 20 jalur
+jarak 2.54mm</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/w7GgOELClBb</t>
+  </si>
+  <si>
+    <t>POWER SUPPLY 24V 400W 16.6A</t>
+  </si>
+  <si>
+    <t>✅ Spesifikasi :
+⚙️ Input : 176~264VAC
+⚙️ Output : 24V
+⚙️ Power : 400W
+⚙️ Current : 16.6A
+⚙️ SIZE 20 X 9.8 X 4.3cm
+⚙️ Short circuit protection
+⚙️ Over voltage protection
+⚙️ Over curent protection
+⚙️ Over power protection
+⚙️ Over temperatur protection
+⚙️ High efficiency
+⚙️ Smart fan</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/6L6mUnXClBb</t>
+  </si>
+  <si>
+    <t>Komponen Resistor, header, dll</t>
+  </si>
+  <si>
+    <t>estimasi, toko offline</t>
+  </si>
+  <si>
+    <t>Kit 57 stepper motor nema 23 torque 2.3 N.M + Driver DM542 4.2A KB26</t>
+  </si>
+  <si>
+    <t>Kit 57 stepper motor nema 23 torque 2.3N.M + Driver DM542 4.2A KB26
+57 stepper motor nema 23 torque 2.3N.M
+Current: 4.4A
+Output torque: 2.3Nm
+Body Length: 76mm
+Shaft length: 20mm
+Shaft shaft diameter: 8mm（Default hair 8MM)
+Shaft: single
+Outlet: two-phase four lead
+blackColor A +
+Green A-
+Red B +
+Blue B-
+Driver DM542 4.2A
+Suitable for Nema 17, Nema 23, Nema34 stepper motor，and 2‑phase mixing stepper motors(outer diameter: 42, 57, 86mm)
+This high subdivision driver is suitable for high subdivision motor. Suitable for 42,57,86 type 28209;phase 48209;phase stepper motor
+PWM current control guarantee the stable operation of motor, suitable for engraving machine, CNC, etc.
+The product is made of high class materials of good quality, which possess stable working performance
+The stepper motor driver have stable structure and high working efficiency, you can use with confidence</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/2WP5RefzlBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible Shaft Coupling </t>
+  </si>
+  <si>
+    <t>Flexible Shaft Coupling 8 mm x 12 mm Coupler D 32 mm L 40 mm KO71
+Features:
+Shaft coupler Often used to connect servo motor, stepper motor, encoder, screw driving, machine platform, etc.
+Shaft:8mm X12mm.
+Length:40mm.
+Diameter:32mm.
+Material: Aluminium.</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/3d5DECnAlBb</t>
+  </si>
+  <si>
+    <t>Pulley Timing CNC 32T  Bore 8mm</t>
+  </si>
+  <si>
+    <t>Spesifikasi teknis produk ini :
+- Nama : GT2 Pulley 32T W6
+- Banyak gigi : 32 Gigi
+- Lebar Belt untuk pulley : 6mm (W6)
+- Pitch, jarak gigi : 2 mm
+- Diameter lubang tengah : 5/6/6.35/8/10 mm (silakan pilih ya ;)
+- Bahan : Aluminium</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/JQX0SzHAlBb</t>
+  </si>
+  <si>
+    <t>GT2 Timing Belt 6mm Closed</t>
+  </si>
+  <si>
+    <t>Spesifikasi produk :
+- Nama : GT2 Timing Belt Closed Loop W6
+- Ukuran : Closed Loop W6 100/150/200/200-Anti Slip/250/300/350/400 mm (Silahkan pilih variasi ya:)
+- Jarak Gigi (pitch) : 2mm
+- Jumlah Gigi : Panjang belt / 2mm, misal 100mm berarti 100/2 = 50gigi
+- Lebar : 6mm
+- Tipe : 2GT Belt
+- Bahan : Rubber</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/xVo8pyZAlBb</t>
+  </si>
+  <si>
+    <t>ROUNDBAR dia 8mm Stainless Steel 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besi AS SS 304 diameter 8mm </t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/pZ8yQPbBlBb</t>
+  </si>
+  <si>
+    <t>Aluminium Profile 2040 V Slot Black</t>
+  </si>
+  <si>
+    <t>V Slot Aluminium Profile Extrusion
+Type : 2040 Black Anodized</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/q3hQ44LBlBb</t>
+  </si>
+  <si>
+    <t>Baut L M5 x 60 mm</t>
+  </si>
+  <si>
+    <t>Baut L M5 - 60- 10 pcs</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/mxd5DvUBlBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5 T nut hammer </t>
+  </si>
+  <si>
+    <t>T Nut Hammer untuk Aluminium Profile 2020, 2040, 2060, 2080</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/UAnZa41BlBb</t>
+  </si>
+  <si>
+    <t>Pillow Block Bearing KP08</t>
+  </si>
+  <si>
+    <t>Pollow Block KP08
+Bore 8mm</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/WBhnmpfClBb</t>
+  </si>
+  <si>
+    <t>L Bracket Stepper Motor 57</t>
+  </si>
+  <si>
+    <t>L Dudukan Stepper Motor Nema 23
+Ketebalan : 3 mm</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/2udrnukdmBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2040 bracket corner </t>
+  </si>
+  <si>
+    <t>Material : Aluminum
+SIZE 2040</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/VFi2RMrdmBb</t>
+  </si>
+  <si>
+    <t>End Cap Aluminium Profile 2040</t>
+  </si>
+  <si>
+    <t>Untuk Aluminium Profile 2040</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/MIBLDmiemBb</t>
+  </si>
+  <si>
+    <t>Akrilik 10mm BENING</t>
+  </si>
+  <si>
+    <t>* Warna BENING 10 mm
+- Clear dan Transparant
+- Potong LASER (rapi dan presisi)</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/ZTXXSVvClBb</t>
+  </si>
+  <si>
+    <t>Roda PU 2 inch</t>
+  </si>
+  <si>
+    <t>Material : PU Polyurethane Produk Premium
+Tipe : Wheel Only ( Tanpa Bracket )
+Diameter :1.5 inch dan 2 Inch ( 5 cm )
+Lebar Roda : 23mm
+Diametes As Tengah : 6 mm
+Kapasitas Beban Maksimum : 50 kg / roda</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/Tpcb6FkElBb</t>
+  </si>
+  <si>
+    <t>Cetak PCB</t>
+  </si>
+  <si>
+    <t>Ketentuan Desain PCB:
+- Lebar jalur min 0.4 mm
+- Jarak antar jalur (clearance) min 0.5 mm
+- Lubang/hole/via/vias untuk double layer min ukuran 1.1 mm
+- Format File : Eagle, PDF, CDR, Fritzing, Sprint Layout, EasyEDA, Express PCB, Dip Trace, Gerber, dll
+- Sertakan informasi tambahan apakah desain layout PCB perlu di cetak MIRROR atau tidak. Jika ada tampilan 3D view akan lebih baik untuk menghindari salah persepsi dalam mencetak PCB</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/YAswk62ClBb</t>
+  </si>
+  <si>
+    <t>TIBOX PVC 150x200x100 (T-1520/10)</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/Ue38GZ8ClBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filament PLA+ Neat Winding Sugoi </t>
+  </si>
+  <si>
+    <t>Filament Ketebalan 1.75 mm dengan kualitas bagus,
+- Roundness Tolerance : 0.01 - 0.02 mm
+- Print Temperature : 210 - 220 Degree Celcius (PLA+)
+- Print Bed Temperature : 0-30 Degree Celcius (PLA+)
+- Water Absorption : Rendah, Tidak ada bubble walau disimpan dalam waktu lama
+- Low Heat Distortion, High Strength and Rigidity</t>
+  </si>
+  <si>
+    <t>https://tokopedia.link/yWIqmd3DlBb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Grup</t>
+  </si>
+  <si>
+    <t>Angle of repose dynamic measurement</t>
+  </si>
+  <si>
+    <t>Customize high performance computing system</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Alokasi</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +574,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -169,8 +594,68 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -229,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,27 +746,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,24 +780,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,14 +955,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2">
+        <f>EXP!F28</f>
+        <v>13175272</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2">
+        <f>COM!E21</f>
+        <v>50092580</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(C2:C3)</f>
+        <v>63267852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37" style="22" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>342000</v>
+      </c>
+      <c r="F2" s="15">
+        <f t="shared" ref="F2:F27" si="0">E2*D2</f>
+        <v>342000</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A3" s="11">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>6500</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A27" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A5" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E5*D5</f>
+        <v>3000</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A6" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6*D6</f>
+        <v>80000</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A7" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>270000</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7*D7</f>
+        <v>270000</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A8" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>250000</v>
+      </c>
+      <c r="F8" s="15">
+        <f>E8*D8</f>
+        <v>250000</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A9" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>600000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A10" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>80000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A11" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="19">
+        <v>25200</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A12" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19">
+        <v>16562</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>99372</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A13" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19">
+        <v>34900</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>139600</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A14" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>780000</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>1560000</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A15" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="19">
+        <v>18000</v>
+      </c>
+      <c r="F15" s="15">
+        <f>E15*D15</f>
+        <v>90000</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="11">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1300</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>52000</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A17" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="11">
+        <v>8</v>
+      </c>
+      <c r="E17" s="19">
+        <v>18000</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A18" s="11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>28000</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A19" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="11">
+        <v>24</v>
+      </c>
+      <c r="E19" s="19">
+        <v>9500</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>228000</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="11">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19">
+        <v>7000</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A21" s="11">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="11">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A22" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A23" s="11">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="11">
+        <v>300</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A24" s="11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <v>125500</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>125500</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A25" s="11">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>230000</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>460000</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A26" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A27" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="E28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="23">
+        <f>SUM(F2:F27)</f>
+        <v>13175272</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G21" r:id="rId14"/>
+    <hyperlink ref="G6" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="G23" r:id="rId17"/>
+    <hyperlink ref="G24" r:id="rId18"/>
+    <hyperlink ref="G25" r:id="rId19"/>
+    <hyperlink ref="G22" r:id="rId20"/>
+    <hyperlink ref="G18" r:id="rId21"/>
+    <hyperlink ref="G19" r:id="rId22"/>
+    <hyperlink ref="G20" r:id="rId23"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
@@ -523,7 +1753,7 @@
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -543,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -564,7 +1794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -585,264 +1815,299 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2350000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4*C4</f>
+        <v>9400000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
-        <v>1050000</v>
+        <v>1500000</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E15" si="0">D5*C5</f>
-        <v>1050000</v>
+        <f>D5*C5</f>
+        <v>1500000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>624600</v>
+        <v>1050000</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>624600</v>
+        <f t="shared" ref="E6:E17" si="0">D6*C6</f>
+        <v>1050000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>68900</v>
+        <v>624600</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>68900</v>
+        <v>624600</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>320</v>
+        <v>68900</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>68900</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5">
-        <v>77500</v>
+        <v>320</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>77500</v>
+        <v>32000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
-        <v>27500</v>
+        <v>8250</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>27500</v>
+        <f>D10*C10</f>
+        <v>99000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>27500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>27500</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>157500</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>315000</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5">
+        <v>124000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>124000</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5">
+        <v>112000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>448000</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5">
-        <v>157500</v>
-      </c>
-      <c r="D11" s="1">
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>15000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>65000</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>315000</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <v>112000</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <v>40395</v>
+      </c>
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>448000</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5">
-        <v>8250</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>66000</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5">
-        <v>15000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>1500000</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>161580</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
@@ -850,7 +2115,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
@@ -858,7 +2123,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
@@ -866,39 +2131,15 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="C21" s="2"/>
       <c r="E21" s="2">
         <f>SUM(E2:E20)</f>
-        <v>40321500</v>
+        <v>50092580</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/2023/devices.xlsx
+++ b/2023/devices.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803F378-F9BD-4C1E-8792-AB2ECAAA370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="2265" windowWidth="14580" windowHeight="12750"/>
+    <workbookView xWindow="12015" yWindow="1515" windowWidth="15105" windowHeight="12750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="3" r:id="rId1"/>
     <sheet name="EXP" sheetId="4" r:id="rId2"/>
     <sheet name="COM" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -520,12 +521,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,7 +580,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -652,9 +653,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -714,7 +718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,9 +750,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,6 +802,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,21 +995,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1023,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -998,7 +1038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -1013,7 +1053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1028,14 +1068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="13" customWidth="1"/>
@@ -1046,7 +1086,7 @@
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+    <row r="2" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1097,7 +1137,7 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+    <row r="3" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -1123,7 +1163,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1">
+    <row r="4" spans="1:8" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f t="shared" ref="A4:A27" si="1">A3+1</f>
         <v>3</v>
@@ -1149,7 +1189,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1">
+    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1174,7 +1214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1199,7 +1239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1224,7 +1264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="35.25" customHeight="1">
+    <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1248,7 +1288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="35.25" customHeight="1">
+    <row r="9" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1273,7 +1313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="35.25" customHeight="1">
+    <row r="10" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1298,7 +1338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="35.25" customHeight="1">
+    <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1323,7 +1363,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="35.25" customHeight="1">
+    <row r="12" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1348,7 +1388,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.25" customHeight="1">
+    <row r="13" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1373,7 +1413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1">
+    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1398,7 +1438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="35.25" customHeight="1">
+    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1423,7 +1463,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.25" customHeight="1">
+    <row r="16" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1448,7 +1488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="35.25" customHeight="1">
+    <row r="17" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1473,7 +1513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="35.25" customHeight="1">
+    <row r="18" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1498,7 +1538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="35.25" customHeight="1">
+    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1523,7 +1563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="35.25" customHeight="1">
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="20" t="s">
         <v>97</v>
@@ -1545,7 +1585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="35.25" customHeight="1">
+    <row r="21" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f>A19+1</f>
         <v>19</v>
@@ -1570,7 +1610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="35.25" customHeight="1">
+    <row r="22" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1595,7 +1635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="35.25" customHeight="1">
+    <row r="23" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1620,7 +1660,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="35.25" customHeight="1">
+    <row r="24" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1645,7 +1685,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="35.25" customHeight="1">
+    <row r="25" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1670,7 +1710,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="35.25" customHeight="1">
+    <row r="26" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1681,7 +1721,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="35.25" customHeight="1">
+    <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1695,7 +1735,7 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="6" t="s">
         <v>114</v>
       </c>
@@ -1706,29 +1746,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
-    <hyperlink ref="G12" r:id="rId8"/>
-    <hyperlink ref="G13" r:id="rId9"/>
-    <hyperlink ref="G14" r:id="rId10"/>
-    <hyperlink ref="G15" r:id="rId11"/>
-    <hyperlink ref="G16" r:id="rId12"/>
-    <hyperlink ref="G17" r:id="rId13"/>
-    <hyperlink ref="G21" r:id="rId14"/>
-    <hyperlink ref="G6" r:id="rId15"/>
-    <hyperlink ref="G7" r:id="rId16"/>
-    <hyperlink ref="G23" r:id="rId17"/>
-    <hyperlink ref="G24" r:id="rId18"/>
-    <hyperlink ref="G25" r:id="rId19"/>
-    <hyperlink ref="G22" r:id="rId20"/>
-    <hyperlink ref="G18" r:id="rId21"/>
-    <hyperlink ref="G19" r:id="rId22"/>
-    <hyperlink ref="G20" r:id="rId23"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G21" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G23" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="G24" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G25" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="G19" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G20" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
@@ -1736,14 +1776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
@@ -1753,7 +1793,7 @@
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1794,7 +1834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1815,7 +1855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1832,11 +1872,11 @@
         <f>D4*C4</f>
         <v>9400000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1857,7 +1897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1878,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1899,7 +1939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1920,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1941,7 +1981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1962,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1983,7 +2023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2004,7 +2044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -2023,7 +2063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2044,7 +2084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2065,7 +2105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2086,7 +2126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2107,7 +2147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
@@ -2115,7 +2155,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
@@ -2123,7 +2163,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
@@ -2131,7 +2171,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="2">
         <f>SUM(E2:E20)</f>
